--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_271.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_271.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.16, 11.1)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.442301, 13.370949)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:49.280000', '0:00:53.940000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2183908045977011</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2843137254901961</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7']]</t>
+          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.159, 16.555)]</t>
+          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.64, 14.1)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:20.022335', '0:01:23.702698')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:07.659045')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'D', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1940559440559441</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G', 'F', 'C']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.158789, 28.202)]</t>
+          <t>[['B:7', 'E', 'A/3']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(70.203514, 104.302018)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:16.180000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:45.712000', '0:00:51.648000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'F:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'E:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.6, 15.84)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.996317, 18.302076)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09528535980148883</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07745098039215687</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(61.32, 66.64)]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(62.932448, 72.777709)]</t>
+          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4689655172413794</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2291666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.20815, 12.997936)]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
+          <t>[('0:00:03.071405', '0:00:11.233219')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:59.020000', '0:01:06.200000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4975490196078431</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D', 'G', 'C', 'G', 'D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(23.04, 30.4), (11.7, 20.02)]</t>
+          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.08, 30.92), (43.88, 48.02)]</t>
+          <t>[('0:00:44.983424', '0:01:03.071768')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:26.025000', '0:01:37.584000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06030744974379188</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.416621, 8.435215)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(98.07585, 110.185056)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>schubert-winterreise_166</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_101</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(137.34, 140.48)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(4.7, 21.62)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07338709677419356</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.22, 10.76)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2158018867924528</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G'], ['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'D'], ['D/5', 'A', 'D/5']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(19.139614, 27.777437), (17.839297, 22.785147)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(35.463242, 38.330907), (31.898979, 34.035215)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(83.05, 97.44)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.175895)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.415079, 14.054444)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(111.92, 115.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
